--- a/data/environmental/daily_measurements.xlsx
+++ b/data/environmental/daily_measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/environmental/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14DB653-3B99-F349-8E51-5978B4FEFEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AC7677-5001-7E46-AC7B-535E84995FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="820" windowWidth="26700" windowHeight="17440" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>pH.mV</t>
   </si>
@@ -53,25 +53,25 @@
     <t>tank</t>
   </si>
   <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>pH.nbs</t>
-  </si>
-  <si>
     <t>temp.C</t>
   </si>
   <si>
     <t>par</t>
   </si>
   <si>
-    <t>flow.mL.5s</t>
-  </si>
-  <si>
     <t>tris.date</t>
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>water_table</t>
+  </si>
+  <si>
+    <t>rainy, cloudy</t>
+  </si>
+  <si>
+    <t>blue_tank</t>
   </si>
 </sst>
 </file>
@@ -107,8 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,15 +424,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716CA15-A063-CD4A-965E-FFCB3C4243EA}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -442,31 +446,80 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45235</v>
+      </c>
+      <c r="B2">
+        <v>1500</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="D2">
+        <v>-70.900000000000006</v>
+      </c>
+      <c r="E2">
+        <v>27.35</v>
+      </c>
+      <c r="F2">
+        <v>36.020000000000003</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>20231105</v>
+      </c>
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>45235</v>
+      </c>
+      <c r="B3">
+        <v>1500</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
+      </c>
+      <c r="D3">
+        <v>-69</v>
+      </c>
+      <c r="E3">
+        <v>27.84</v>
+      </c>
+      <c r="F3">
+        <v>36.11</v>
+      </c>
+      <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>20231105</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/environmental/daily_measurements.xlsx
+++ b/data/environmental/daily_measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/environmental/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AC7677-5001-7E46-AC7B-535E84995FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0680A9-74FB-9349-99F6-5AD2564F1D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="820" windowWidth="26700" windowHeight="17440" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>pH.mV</t>
   </si>
@@ -65,13 +65,13 @@
     <t>notes</t>
   </si>
   <si>
-    <t>water_table</t>
-  </si>
-  <si>
     <t>rainy, cloudy</t>
   </si>
   <si>
-    <t>blue_tank</t>
+    <t>water table</t>
+  </si>
+  <si>
+    <t>blue tank</t>
   </si>
 </sst>
 </file>
@@ -107,9 +107,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716CA15-A063-CD4A-965E-FFCB3C4243EA}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,7 +473,7 @@
         <v>1500</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>-70.900000000000006</v>
@@ -490,7 +491,7 @@
         <v>20231105</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -519,7 +520,65 @@
         <v>20231105</v>
       </c>
       <c r="I3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>45236</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
+      </c>
+      <c r="D4">
+        <v>-69.900000000000006</v>
+      </c>
+      <c r="E4">
+        <v>28.36</v>
+      </c>
+      <c r="F4">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="G4">
+        <v>376</v>
+      </c>
+      <c r="H4">
+        <v>20231105</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>45236</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>-69.3</v>
+      </c>
+      <c r="E5">
+        <v>28.8</v>
+      </c>
+      <c r="F5">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="G5">
+        <v>517</v>
+      </c>
+      <c r="H5">
+        <v>20231105</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/environmental/daily_measurements.xlsx
+++ b/data/environmental/daily_measurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/environmental/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chloegilligan/Desktop/PutnamLab/Repositories /moorea_symbiotic_exchange_2023/data/environmental/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0680A9-74FB-9349-99F6-5AD2564F1D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E12A87-38C4-DF4A-8399-34DDBD7029A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="820" windowWidth="26700" windowHeight="17440" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
+    <workbookView xWindow="2240" yWindow="820" windowWidth="26700" windowHeight="17440" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>pH.mV</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>blue tank</t>
+  </si>
+  <si>
+    <t>sunny, partly cloudy</t>
   </si>
 </sst>
 </file>
@@ -425,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716CA15-A063-CD4A-965E-FFCB3C4243EA}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -581,6 +584,180 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>45237</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>-68.5</v>
+      </c>
+      <c r="E6">
+        <v>27.15</v>
+      </c>
+      <c r="F6">
+        <v>35.61</v>
+      </c>
+      <c r="G6">
+        <v>374</v>
+      </c>
+      <c r="H6">
+        <v>20231105</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>45237</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>-66.099999999999994</v>
+      </c>
+      <c r="E7">
+        <v>27.15</v>
+      </c>
+      <c r="F7">
+        <v>35.54</v>
+      </c>
+      <c r="G7">
+        <v>583</v>
+      </c>
+      <c r="H7">
+        <v>20231105</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>45237</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>-70.2</v>
+      </c>
+      <c r="E8">
+        <v>27.86</v>
+      </c>
+      <c r="F8">
+        <v>35.72</v>
+      </c>
+      <c r="G8">
+        <v>220</v>
+      </c>
+      <c r="H8">
+        <v>20231105</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>45237</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>-69.2</v>
+      </c>
+      <c r="E9">
+        <v>28.48</v>
+      </c>
+      <c r="F9">
+        <v>35.630000000000003</v>
+      </c>
+      <c r="G9">
+        <v>394</v>
+      </c>
+      <c r="H9">
+        <v>20231105</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>45237</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.1875</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>-69</v>
+      </c>
+      <c r="E10">
+        <v>27.67</v>
+      </c>
+      <c r="F10">
+        <v>35.86</v>
+      </c>
+      <c r="G10">
+        <v>169</v>
+      </c>
+      <c r="H10">
+        <v>20231105</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>45237</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.1875</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>-64.5</v>
+      </c>
+      <c r="E11">
+        <v>28.66</v>
+      </c>
+      <c r="F11">
+        <v>35.71</v>
+      </c>
+      <c r="G11">
+        <v>211</v>
+      </c>
+      <c r="H11">
+        <v>20231105</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/environmental/daily_measurements.xlsx
+++ b/data/environmental/daily_measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chloegilligan/Desktop/PutnamLab/Repositories /moorea_symbiotic_exchange_2023/data/environmental/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E12A87-38C4-DF4A-8399-34DDBD7029A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D918C70F-C3B6-2942-907F-7419CFF7BDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2240" yWindow="820" windowWidth="26700" windowHeight="17440" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
   <si>
     <t>pH.mV</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>sunny, partly cloudy</t>
+  </si>
+  <si>
+    <t>sunny</t>
   </si>
 </sst>
 </file>
@@ -428,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716CA15-A063-CD4A-965E-FFCB3C4243EA}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -705,7 +708,7 @@
         <v>45237</v>
       </c>
       <c r="B10" s="2">
-        <v>0.1875</v>
+        <v>0.6875</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -734,7 +737,7 @@
         <v>45237</v>
       </c>
       <c r="B11" s="2">
-        <v>0.1875</v>
+        <v>0.6875</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -757,6 +760,189 @@
       <c r="I11" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>45238</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.32708333333333334</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>-67.2</v>
+      </c>
+      <c r="E12">
+        <v>26.85</v>
+      </c>
+      <c r="F12">
+        <v>35.659999999999997</v>
+      </c>
+      <c r="G12">
+        <v>176</v>
+      </c>
+      <c r="H12">
+        <v>20231105</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>45238</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>-65.900000000000006</v>
+      </c>
+      <c r="E13">
+        <v>27.16</v>
+      </c>
+      <c r="F13">
+        <v>35.75</v>
+      </c>
+      <c r="G13">
+        <v>250</v>
+      </c>
+      <c r="H13">
+        <v>20231105</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>45238</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>-52.8</v>
+      </c>
+      <c r="E14">
+        <v>27.28</v>
+      </c>
+      <c r="F14">
+        <v>35.6</v>
+      </c>
+      <c r="G14">
+        <v>192</v>
+      </c>
+      <c r="H14">
+        <v>20231105</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>45238</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>-66.5</v>
+      </c>
+      <c r="E15">
+        <v>27.59</v>
+      </c>
+      <c r="F15">
+        <v>35.659999999999997</v>
+      </c>
+      <c r="G15">
+        <v>278</v>
+      </c>
+      <c r="H15">
+        <v>20231105</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>45238</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>-68.2</v>
+      </c>
+      <c r="E16">
+        <v>27.46</v>
+      </c>
+      <c r="F16">
+        <v>35.6</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="H16">
+        <v>20231105</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>45238</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>-69.099999999999994</v>
+      </c>
+      <c r="E17">
+        <v>28.16</v>
+      </c>
+      <c r="F17">
+        <v>35.630000000000003</v>
+      </c>
+      <c r="G17">
+        <v>48</v>
+      </c>
+      <c r="H17">
+        <v>20231105</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/environmental/daily_measurements.xlsx
+++ b/data/environmental/daily_measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chloegilligan/Desktop/PutnamLab/Repositories /moorea_symbiotic_exchange_2023/data/environmental/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D918C70F-C3B6-2942-907F-7419CFF7BDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70F8E7F-BBCD-F745-94DD-A11777825120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="820" windowWidth="26700" windowHeight="17440" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
+    <workbookView xWindow="1060" yWindow="1820" windowWidth="26700" windowHeight="17440" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
   <si>
     <t>pH.mV</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>sunny</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>tank1</t>
+  </si>
+  <si>
+    <t>tank3</t>
+  </si>
+  <si>
+    <t>tank2</t>
   </si>
 </sst>
 </file>
@@ -431,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716CA15-A063-CD4A-965E-FFCB3C4243EA}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -936,13 +948,157 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>45239</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>-72.400000000000006</v>
+      </c>
+      <c r="E18">
+        <v>27.7</v>
+      </c>
+      <c r="F18">
+        <v>35.729999999999997</v>
+      </c>
+      <c r="G18">
+        <v>61</v>
+      </c>
+      <c r="H18">
+        <v>20231105</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1">
+        <v>45239</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>-68.400000000000006</v>
+      </c>
+      <c r="E19">
+        <v>27.94</v>
+      </c>
+      <c r="F19">
+        <v>35.840000000000003</v>
+      </c>
+      <c r="G19">
+        <v>91</v>
+      </c>
+      <c r="H19">
+        <v>20231105</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <v>45239</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>-72.5</v>
+      </c>
+      <c r="E20">
+        <v>27.1</v>
+      </c>
+      <c r="F20">
+        <v>36.090000000000003</v>
+      </c>
+      <c r="G20">
+        <v>592</v>
+      </c>
+      <c r="H20">
+        <v>20231105</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>45239</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>-72.7</v>
+      </c>
+      <c r="E21">
+        <v>27.06</v>
+      </c>
+      <c r="F21">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="G21">
+        <v>596</v>
+      </c>
+      <c r="H21">
+        <v>20231105</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>45239</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>-69.3</v>
+      </c>
+      <c r="E22">
+        <v>32.93</v>
+      </c>
+      <c r="F22">
+        <v>36.06</v>
+      </c>
+      <c r="G22">
+        <v>591</v>
+      </c>
+      <c r="H22">
+        <v>20231105</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/environmental/daily_measurements.xlsx
+++ b/data/environmental/daily_measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chloegilligan/Desktop/PutnamLab/Repositories /moorea_symbiotic_exchange_2023/data/environmental/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70F8E7F-BBCD-F745-94DD-A11777825120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731A9066-F943-4C45-9CD8-8AEE2C145714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1820" windowWidth="26700" windowHeight="17440" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
+    <workbookView xWindow="13100" yWindow="760" windowWidth="18740" windowHeight="17440" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="19">
   <si>
     <t>pH.mV</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>tank2</t>
+  </si>
+  <si>
+    <t>partly cloudy</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716CA15-A063-CD4A-965E-FFCB3C4243EA}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1093,12 +1096,207 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="1">
+        <v>45239</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>-74.7</v>
+      </c>
+      <c r="E23">
+        <v>28.5</v>
+      </c>
+      <c r="F23">
+        <v>36.03</v>
+      </c>
+      <c r="G23">
+        <v>509</v>
+      </c>
+      <c r="H23">
+        <v>20231105</v>
+      </c>
+      <c r="I23" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="1">
+        <v>45239</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>-72.900000000000006</v>
+      </c>
+      <c r="E24">
+        <v>28.7</v>
+      </c>
+      <c r="F24">
+        <v>35.94</v>
+      </c>
+      <c r="G24">
+        <v>693</v>
+      </c>
+      <c r="H24">
+        <v>20231105</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>45239</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>-72.2</v>
+      </c>
+      <c r="E25">
+        <v>27.03</v>
+      </c>
+      <c r="F25">
+        <v>36.049999999999997</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25">
+        <v>20231105</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>45239</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>-69.2</v>
+      </c>
+      <c r="E26">
+        <v>30.02</v>
+      </c>
+      <c r="F26">
+        <v>36.06</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26">
+        <v>20231105</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>45239</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <v>-67.5</v>
+      </c>
+      <c r="E27">
+        <v>32.979999999999997</v>
+      </c>
+      <c r="F27">
+        <v>36.21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27">
+        <v>20231105</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>45239</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>-74.8</v>
+      </c>
+      <c r="E28">
+        <v>28.16</v>
+      </c>
+      <c r="F28">
+        <v>35.97</v>
+      </c>
+      <c r="G28">
+        <v>11</v>
+      </c>
+      <c r="H28">
+        <v>20231105</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>45239</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>-73.7</v>
+      </c>
+      <c r="E29">
+        <v>28.96</v>
+      </c>
+      <c r="F29">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="G29">
+        <v>22</v>
+      </c>
+      <c r="H29">
+        <v>20231105</v>
+      </c>
+      <c r="I29" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/environmental/daily_measurements.xlsx
+++ b/data/environmental/daily_measurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chloegilligan/Desktop/PutnamLab/Repositories /moorea_symbiotic_exchange_2023/data/environmental/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/environmental/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731A9066-F943-4C45-9CD8-8AEE2C145714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB240B1-9449-8F4D-BD14-587AC6B21415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13100" yWindow="760" windowWidth="18740" windowHeight="17440" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
+    <workbookView xWindow="11500" yWindow="760" windowWidth="18740" windowHeight="17440" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="19">
   <si>
     <t>pH.mV</t>
   </si>
@@ -449,7 +449,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1172,8 +1172,8 @@
       <c r="F25">
         <v>36.049999999999997</v>
       </c>
-      <c r="G25" t="s">
-        <v>14</v>
+      <c r="G25">
+        <v>580</v>
       </c>
       <c r="H25">
         <v>20231105</v>
@@ -1201,8 +1201,8 @@
       <c r="F26">
         <v>36.06</v>
       </c>
-      <c r="G26" t="s">
-        <v>14</v>
+      <c r="G26">
+        <v>582</v>
       </c>
       <c r="H26">
         <v>20231105</v>
@@ -1230,8 +1230,8 @@
       <c r="F27">
         <v>36.21</v>
       </c>
-      <c r="G27" t="s">
-        <v>14</v>
+      <c r="G27">
+        <v>590</v>
       </c>
       <c r="H27">
         <v>20231105</v>

--- a/data/environmental/daily_measurements.xlsx
+++ b/data/environmental/daily_measurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/environmental/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chloegilligan/Desktop/PutnamLab/Repositories /moorea_symbiotic_exchange_2023/data/environmental/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB240B1-9449-8F4D-BD14-587AC6B21415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE9032E-8F46-CB4B-852A-00F4A3EBDD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11500" yWindow="760" windowWidth="18740" windowHeight="17440" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
+    <workbookView xWindow="2160" yWindow="880" windowWidth="18740" windowHeight="17440" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="24">
   <si>
     <t>pH.mV</t>
   </si>
@@ -93,6 +93,21 @@
   </si>
   <si>
     <t>partly cloudy</t>
+  </si>
+  <si>
+    <t>cooler1</t>
+  </si>
+  <si>
+    <t>cooler2</t>
+  </si>
+  <si>
+    <t>cooler3</t>
+  </si>
+  <si>
+    <t>Night</t>
+  </si>
+  <si>
+    <t>cloudy</t>
   </si>
 </sst>
 </file>
@@ -446,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716CA15-A063-CD4A-965E-FFCB3C4243EA}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1298,6 +1313,876 @@
         <v>18</v>
       </c>
     </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>45240</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>-78.3</v>
+      </c>
+      <c r="E30">
+        <v>29.18</v>
+      </c>
+      <c r="F30">
+        <v>36.119999999999997</v>
+      </c>
+      <c r="G30">
+        <v>361</v>
+      </c>
+      <c r="H30">
+        <v>20231105</v>
+      </c>
+      <c r="I30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>45240</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>-77.8</v>
+      </c>
+      <c r="E31">
+        <v>29.34</v>
+      </c>
+      <c r="F31">
+        <v>35.979999999999997</v>
+      </c>
+      <c r="G31">
+        <v>488</v>
+      </c>
+      <c r="H31">
+        <v>20231105</v>
+      </c>
+      <c r="I31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>45240</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>-74.2</v>
+      </c>
+      <c r="E32">
+        <v>28.95</v>
+      </c>
+      <c r="F32">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="G32">
+        <v>492</v>
+      </c>
+      <c r="H32">
+        <v>20231105</v>
+      </c>
+      <c r="I32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>45240</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33">
+        <v>-73.900000000000006</v>
+      </c>
+      <c r="E33">
+        <v>28.96</v>
+      </c>
+      <c r="F33">
+        <v>35.96</v>
+      </c>
+      <c r="G33">
+        <v>532</v>
+      </c>
+      <c r="H33">
+        <v>20231105</v>
+      </c>
+      <c r="I33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>45240</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>-73.8</v>
+      </c>
+      <c r="E34">
+        <v>28.95</v>
+      </c>
+      <c r="F34">
+        <v>35.94</v>
+      </c>
+      <c r="G34">
+        <v>541</v>
+      </c>
+      <c r="H34">
+        <v>20231105</v>
+      </c>
+      <c r="I34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>45240</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35">
+        <v>-73.2</v>
+      </c>
+      <c r="E35">
+        <v>27.79</v>
+      </c>
+      <c r="F35">
+        <v>35.85</v>
+      </c>
+      <c r="G35">
+        <v>363</v>
+      </c>
+      <c r="H35">
+        <v>20231105</v>
+      </c>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>45240</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <v>-73</v>
+      </c>
+      <c r="E36">
+        <v>27.38</v>
+      </c>
+      <c r="F36">
+        <v>35.76</v>
+      </c>
+      <c r="G36">
+        <v>537</v>
+      </c>
+      <c r="H36">
+        <v>20231105</v>
+      </c>
+      <c r="I36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>45240</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37">
+        <v>-72.400000000000006</v>
+      </c>
+      <c r="E37">
+        <v>27.2</v>
+      </c>
+      <c r="F37">
+        <v>35.770000000000003</v>
+      </c>
+      <c r="G37">
+        <v>445</v>
+      </c>
+      <c r="H37">
+        <v>20231105</v>
+      </c>
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>45241</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>-66.3</v>
+      </c>
+      <c r="E38">
+        <v>28.83</v>
+      </c>
+      <c r="F38">
+        <v>36.159999999999997</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38">
+        <v>20231105</v>
+      </c>
+      <c r="I38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>45241</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>-72.7</v>
+      </c>
+      <c r="E39">
+        <v>29.89</v>
+      </c>
+      <c r="F39">
+        <v>36.090000000000003</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39">
+        <v>20231105</v>
+      </c>
+      <c r="I39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>45241</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>-71.5</v>
+      </c>
+      <c r="E40">
+        <v>28.12</v>
+      </c>
+      <c r="F40">
+        <v>36.29</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40">
+        <v>20231105</v>
+      </c>
+      <c r="I40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>45241</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41">
+        <v>-71.2</v>
+      </c>
+      <c r="E41">
+        <v>28.61</v>
+      </c>
+      <c r="F41">
+        <v>36.21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41">
+        <v>20231105</v>
+      </c>
+      <c r="I41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>45241</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42">
+        <v>-69.5</v>
+      </c>
+      <c r="E42">
+        <v>28.98</v>
+      </c>
+      <c r="F42">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42">
+        <v>20231105</v>
+      </c>
+      <c r="I42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>45241</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43">
+        <v>-75.2</v>
+      </c>
+      <c r="E43">
+        <v>28.86</v>
+      </c>
+      <c r="F43">
+        <v>36.08</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43">
+        <v>20231105</v>
+      </c>
+      <c r="I43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>45241</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44">
+        <v>-74.8</v>
+      </c>
+      <c r="E44">
+        <v>28.89</v>
+      </c>
+      <c r="F44">
+        <v>36.049999999999997</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44">
+        <v>20231105</v>
+      </c>
+      <c r="I44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>45241</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45">
+        <v>-74.5</v>
+      </c>
+      <c r="E45">
+        <v>28.85</v>
+      </c>
+      <c r="F45">
+        <v>36.06</v>
+      </c>
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45">
+        <v>20231105</v>
+      </c>
+      <c r="I45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45243</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.41388888888888892</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>-72.2</v>
+      </c>
+      <c r="E46">
+        <v>28.42</v>
+      </c>
+      <c r="F46">
+        <v>36.22</v>
+      </c>
+      <c r="G46">
+        <v>212</v>
+      </c>
+      <c r="H46">
+        <v>20231105</v>
+      </c>
+      <c r="I46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45243</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47">
+        <v>-70.8</v>
+      </c>
+      <c r="E47">
+        <v>28.29</v>
+      </c>
+      <c r="F47">
+        <v>36.119999999999997</v>
+      </c>
+      <c r="G47">
+        <v>252</v>
+      </c>
+      <c r="H47">
+        <v>20231105</v>
+      </c>
+      <c r="I47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>45243</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48">
+        <v>-71.3</v>
+      </c>
+      <c r="E48">
+        <v>28.37</v>
+      </c>
+      <c r="F48">
+        <v>36.08</v>
+      </c>
+      <c r="G48">
+        <v>222</v>
+      </c>
+      <c r="H48">
+        <v>20231105</v>
+      </c>
+      <c r="I48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>45243</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.41597222222222219</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49">
+        <v>-71.400000000000006</v>
+      </c>
+      <c r="E49">
+        <v>28.37</v>
+      </c>
+      <c r="F49">
+        <v>36.130000000000003</v>
+      </c>
+      <c r="G49">
+        <v>176</v>
+      </c>
+      <c r="H49">
+        <v>20231105</v>
+      </c>
+      <c r="I49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>45243</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50">
+        <v>-62.5</v>
+      </c>
+      <c r="E50">
+        <v>26.73</v>
+      </c>
+      <c r="F50">
+        <v>35.94</v>
+      </c>
+      <c r="G50">
+        <v>391</v>
+      </c>
+      <c r="H50">
+        <v>20231105</v>
+      </c>
+      <c r="I50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>45243</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="C51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51">
+        <v>-60</v>
+      </c>
+      <c r="E51">
+        <v>26.37</v>
+      </c>
+      <c r="F51">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="G51">
+        <v>186</v>
+      </c>
+      <c r="H51">
+        <v>20231105</v>
+      </c>
+      <c r="I51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>45243</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="C52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52">
+        <v>-63</v>
+      </c>
+      <c r="E52">
+        <v>26.29</v>
+      </c>
+      <c r="F52">
+        <v>36.229999999999997</v>
+      </c>
+      <c r="G52">
+        <v>150</v>
+      </c>
+      <c r="H52">
+        <v>20231105</v>
+      </c>
+      <c r="I52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>45244</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>-70.2</v>
+      </c>
+      <c r="E53">
+        <v>29.09</v>
+      </c>
+      <c r="F53">
+        <v>36</v>
+      </c>
+      <c r="G53">
+        <v>187</v>
+      </c>
+      <c r="H53">
+        <v>20231105</v>
+      </c>
+      <c r="I53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>45244</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54">
+        <v>-69.7</v>
+      </c>
+      <c r="E54">
+        <v>28.79</v>
+      </c>
+      <c r="F54">
+        <v>35.93</v>
+      </c>
+      <c r="G54">
+        <v>124</v>
+      </c>
+      <c r="H54">
+        <v>20231105</v>
+      </c>
+      <c r="I54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>45244</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55">
+        <v>-69.7</v>
+      </c>
+      <c r="E55">
+        <v>28.84</v>
+      </c>
+      <c r="F55">
+        <v>35.92</v>
+      </c>
+      <c r="G55">
+        <v>81</v>
+      </c>
+      <c r="H55">
+        <v>20231105</v>
+      </c>
+      <c r="I55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>45244</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56">
+        <v>-70.2</v>
+      </c>
+      <c r="E56">
+        <v>28.74</v>
+      </c>
+      <c r="F56">
+        <v>35.909999999999997</v>
+      </c>
+      <c r="G56">
+        <v>89</v>
+      </c>
+      <c r="H56">
+        <v>20231105</v>
+      </c>
+      <c r="I56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>45244</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57">
+        <v>-49.9</v>
+      </c>
+      <c r="E57">
+        <v>27.35</v>
+      </c>
+      <c r="F57">
+        <v>36.72</v>
+      </c>
+      <c r="G57">
+        <v>68</v>
+      </c>
+      <c r="H57">
+        <v>20231105</v>
+      </c>
+      <c r="I57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>45244</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58">
+        <v>-49.2</v>
+      </c>
+      <c r="E58">
+        <v>27.22</v>
+      </c>
+      <c r="F58">
+        <v>36.47</v>
+      </c>
+      <c r="G58">
+        <v>66</v>
+      </c>
+      <c r="H58">
+        <v>20231105</v>
+      </c>
+      <c r="I58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>45244</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="C59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59">
+        <v>-49.7</v>
+      </c>
+      <c r="E59">
+        <v>27.75</v>
+      </c>
+      <c r="F59">
+        <v>36.53</v>
+      </c>
+      <c r="G59">
+        <v>90</v>
+      </c>
+      <c r="H59">
+        <v>20231105</v>
+      </c>
+      <c r="I59" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/environmental/daily_measurements.xlsx
+++ b/data/environmental/daily_measurements.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chloegilligan/Desktop/PutnamLab/Repositories /moorea_symbiotic_exchange_2023/data/environmental/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE9032E-8F46-CB4B-852A-00F4A3EBDD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89455770-14A4-5146-81DA-EE6E41B5E6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="880" windowWidth="18740" windowHeight="17440" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
+    <workbookView xWindow="2160" yWindow="880" windowWidth="26420" windowHeight="17440" xr2:uid="{6B87E6CE-126B-8B47-B516-351EEAF1A0B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="27">
   <si>
     <t>pH.mV</t>
   </si>
@@ -108,16 +108,32 @@
   </si>
   <si>
     <t>cloudy</t>
+  </si>
+  <si>
+    <t>squaricle1</t>
+  </si>
+  <si>
+    <t>squaricle2</t>
+  </si>
+  <si>
+    <t>squaricle3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,10 +159,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5716CA15-A063-CD4A-965E-FFCB3C4243EA}">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1379,7 +1396,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D32">
         <v>-74.2</v>
@@ -1408,7 +1425,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D33">
         <v>-73.900000000000006</v>
@@ -1436,8 +1453,8 @@
       <c r="B34" s="2">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C34" t="s">
-        <v>16</v>
+      <c r="C34" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D34">
         <v>-73.8</v>
@@ -1814,7 +1831,7 @@
         <v>0.4145833333333333</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D47">
         <v>-70.8</v>
@@ -1843,7 +1860,7 @@
         <v>0.4152777777777778</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D48">
         <v>-71.3</v>
@@ -1871,8 +1888,8 @@
       <c r="B49" s="2">
         <v>0.41597222222222219</v>
       </c>
-      <c r="C49" t="s">
-        <v>16</v>
+      <c r="C49" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D49">
         <v>-71.400000000000006</v>
@@ -2017,7 +2034,7 @@
         <v>0.6875</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D54">
         <v>-69.7</v>
@@ -2046,7 +2063,7 @@
         <v>0.6875</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D55">
         <v>-69.7</v>
@@ -2074,8 +2091,8 @@
       <c r="B56" s="2">
         <v>0.6875</v>
       </c>
-      <c r="C56" t="s">
-        <v>16</v>
+      <c r="C56" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D56">
         <v>-70.2</v>
@@ -2180,6 +2197,209 @@
         <v>20231105</v>
       </c>
       <c r="I59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>45245</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>-69.3</v>
+      </c>
+      <c r="E60">
+        <v>27.75</v>
+      </c>
+      <c r="F60">
+        <v>35.909999999999997</v>
+      </c>
+      <c r="G60">
+        <v>380</v>
+      </c>
+      <c r="H60">
+        <v>20231105</v>
+      </c>
+      <c r="I60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>45245</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61">
+        <v>-69.8</v>
+      </c>
+      <c r="E61">
+        <v>27.63</v>
+      </c>
+      <c r="F61">
+        <v>35.89</v>
+      </c>
+      <c r="G61">
+        <v>426</v>
+      </c>
+      <c r="H61">
+        <v>20231105</v>
+      </c>
+      <c r="I61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>45245</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62">
+        <v>-69.400000000000006</v>
+      </c>
+      <c r="E62">
+        <v>27.61</v>
+      </c>
+      <c r="F62">
+        <v>35.880000000000003</v>
+      </c>
+      <c r="G62">
+        <v>325</v>
+      </c>
+      <c r="H62">
+        <v>20231105</v>
+      </c>
+      <c r="I62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>45245</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63">
+        <v>-69.7</v>
+      </c>
+      <c r="E63">
+        <v>27.73</v>
+      </c>
+      <c r="F63">
+        <v>35.85</v>
+      </c>
+      <c r="G63">
+        <v>310</v>
+      </c>
+      <c r="H63">
+        <v>20231105</v>
+      </c>
+      <c r="I63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>45245</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64">
+        <v>-40.6</v>
+      </c>
+      <c r="E64">
+        <v>24.22</v>
+      </c>
+      <c r="F64">
+        <v>36.42</v>
+      </c>
+      <c r="G64">
+        <v>231</v>
+      </c>
+      <c r="H64">
+        <v>20231105</v>
+      </c>
+      <c r="I64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>45245</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65">
+        <v>-39.9</v>
+      </c>
+      <c r="E65">
+        <v>23.78</v>
+      </c>
+      <c r="F65">
+        <v>36.74</v>
+      </c>
+      <c r="G65">
+        <v>270</v>
+      </c>
+      <c r="H65">
+        <v>20231105</v>
+      </c>
+      <c r="I65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>45245</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66">
+        <v>-38</v>
+      </c>
+      <c r="E66">
+        <v>24.66</v>
+      </c>
+      <c r="F66">
+        <v>37.08</v>
+      </c>
+      <c r="G66">
+        <v>299</v>
+      </c>
+      <c r="H66">
+        <v>20231105</v>
+      </c>
+      <c r="I66" t="s">
         <v>13</v>
       </c>
     </row>
